--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huudo\eclipse-workspace\SeleniumEcommerceProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1036D062-9A84-41C5-B13A-0986A7BAB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6D0B9-4D6B-4BD6-BC77-49F03920DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="2544" windowWidth="17280" windowHeight="9420" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="credentials" sheetId="6" r:id="rId2"/>
-    <sheet name="IndexPage" sheetId="3" r:id="rId3"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId4"/>
-    <sheet name="SignUpPage" sheetId="5" r:id="rId5"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="Email" sheetId="7" r:id="rId3"/>
+    <sheet name="ProductDetails" sheetId="8" r:id="rId4"/>
+    <sheet name="SearchProduct" sheetId="9" r:id="rId5"/>
+    <sheet name="IndexPage" sheetId="3" r:id="rId6"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId7"/>
+    <sheet name="SignUpPage" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
   <si>
     <t>Page Classes</t>
   </si>
@@ -100,9 +103,6 @@
   </si>
   <si>
     <t>AccountCreationTest</t>
-  </si>
-  <si>
-    <t>createAccountTest</t>
   </si>
   <si>
     <t>productAvailabilityTest</t>
@@ -841,9 +841,6 @@
 Wishlist should be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanity </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smoke </t>
   </si>
   <si>
@@ -875,6 +872,50 @@
   </si>
   <si>
     <t>Huudoan03</t>
+  </si>
+  <si>
+    <t>verifyAccountCreationPageTest
+signUpTest</t>
+  </si>
+  <si>
+    <t>Smoke
+Sanity</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Doan</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>huudoan@gmail.com</t>
+  </si>
+  <si>
+    <t>Huudoan1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1022,11 +1063,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1357,7 +1399,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,18 +1407,19 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1389,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -1406,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>19</v>
@@ -1423,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>21</v>
@@ -1439,30 +1482,30 @@
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>123</v>
+      <c r="D7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1475,30 +1518,30 @@
         <v>16</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,13 +1552,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1530,35 +1573,35 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="16">
         <v>3</v>
@@ -1566,7 +1609,7 @@
     </row>
     <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="16">
         <v>3</v>
@@ -1585,30 +1628,30 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="21.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1621,6 +1664,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB880A8E-A06D-4A5D-BF43-93FFA923BED8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{52DD22FB-AC98-444C-9998-950DA8CF4990}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BAEA0E-D218-4B4E-BCF1-7CA2E7B251DF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A844087-BC13-4B3E-A1E9-FFACEDD5EF04}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FACADF-9128-41F4-B561-002173A0815F}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -1641,40 +1795,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
@@ -1683,18 +1837,18 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="1"/>
@@ -1707,18 +1861,18 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="1"/>
@@ -1731,18 +1885,18 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1755,18 +1909,18 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1779,18 +1933,18 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1803,18 +1957,18 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1827,18 +1981,18 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1851,18 +2005,18 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2154,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D0DAE4-11A2-47A3-ABA9-6B28EA9B527C}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -2179,40 +2333,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
@@ -2221,22 +2375,22 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2247,22 +2401,22 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2273,22 +2427,22 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2299,24 +2453,24 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2327,24 +2481,24 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2355,24 +2509,24 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2383,24 +2537,24 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2411,24 +2565,24 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2439,24 +2593,24 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2467,24 +2621,24 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2495,24 +2649,24 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2620,7 +2774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4CF1D2-5558-412B-9231-855A7259847A}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -2645,40 +2799,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="171.6" x14ac:dyDescent="0.3">
@@ -2687,22 +2841,22 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2713,22 +2867,22 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2739,22 +2893,22 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2765,24 +2919,24 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2793,24 +2947,24 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2821,24 +2975,24 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2849,24 +3003,24 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2877,24 +3031,24 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2905,24 +3059,24 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2933,24 +3087,24 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2961,24 +3115,24 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huudo\eclipse-workspace\SeleniumEcommerceProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6D0B9-4D6B-4BD6-BC77-49F03920DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6921CF-7969-458B-889D-C43C45D849A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
+    <workbookView xWindow="5304" yWindow="0" windowWidth="17280" windowHeight="9420" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -868,12 +868,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>huudoan03@gmail.com</t>
-  </si>
-  <si>
-    <t>Huudoan03</t>
-  </si>
-  <si>
     <t>verifyAccountCreationPageTest
 signUpTest</t>
   </si>
@@ -916,13 +910,19 @@
   </si>
   <si>
     <t>short</t>
+  </si>
+  <si>
+    <t>huudoan1204@gmail.com</t>
+  </si>
+  <si>
+    <t>Huudoan1204</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,13 +957,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1014,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1064,11 +1057,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,10 +1491,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>116</v>
@@ -1628,13 +1620,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
@@ -1648,10 +1640,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1679,13 +1671,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>130</v>
@@ -1693,16 +1685,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1725,15 +1717,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -1756,17 +1748,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huudo\eclipse-workspace\SeleniumEcommerceProject\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Testing\Selenium-Ecommerce-Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6921CF-7969-458B-889D-C43C45D849A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259D408-A38B-4410-B8AE-4E4D524AAA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="0" windowWidth="17280" windowHeight="9420" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="818" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="IndexPage" sheetId="3" r:id="rId6"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId7"/>
     <sheet name="SignUpPage" sheetId="5" r:id="rId8"/>
+    <sheet name="ProductPage" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="176">
   <si>
     <t>Page Classes</t>
   </si>
@@ -251,9 +252,6 @@
 3. Input valid phone number/email and blank password</t>
   </si>
   <si>
-    <t>There is an "Invalid.." error message is showed.</t>
-  </si>
-  <si>
     <t>Default value is blank.</t>
   </si>
   <si>
@@ -523,10 +521,6 @@
 3. Input blank phone number/email and blank password</t>
   </si>
   <si>
-    <t>Phone Number: +84906202270
-Password: Huudoan1204@</t>
-  </si>
-  <si>
     <t>1. Open website.
 2. Open login screen
 3. Input invalid phone number/email and incorrect password</t>
@@ -535,158 +529,6 @@
     <t>1. Open website.
 2. Open login screen
 3. Input valid phone number/email and incorrect password</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>blank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number: +84906202270
-Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>blank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Password: Huudoan1204@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number: +84386482460 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(invalid)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Password: Huudoan1204@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number: +84906202270
-Password: Huudoan1204@@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(incorrect)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number: +84386482460 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(invalid)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Password: Huudoan1204@@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(incorrect)</t>
-    </r>
   </si>
   <si>
     <t>Negative case</t>
@@ -916,6 +758,565 @@
   </si>
   <si>
     <t>Huudoan1204</t>
+  </si>
+  <si>
+    <t>Email/Username: huudoan1204@gmail.com
+Password: Huudoan1204</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email/Username: huudoan1204@gmail </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(invalid)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: Huudoan1204</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email/Username: huudoan1204@gmail.com
+Password: Huudoan1204@@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(incorrect)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email/Username: huudoan1204@gmail </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(invalid)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: Huudoan1204@@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(incorrect)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email/Username: huudoan1204@gmail.com
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email/Username: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email/Username: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: Huudoan1204</t>
+    </r>
+  </si>
+  <si>
+    <t>Error message "Your email is invalid" is showed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that there is an error message is showed when user input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> phone number/email and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that there is an error message is showed when user input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">blank </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">phone number/email and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that there is an error message is showed when user input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">phone number/email and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that there is an error message is showed when user input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> phone number/email and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that there is an error message is showed when user input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">phone number/email and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that there is an error message is showed when user input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">phone number/email and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> password</t>
+    </r>
+  </si>
+  <si>
+    <t>Error message "Your login information is incorrect" is showed.</t>
+  </si>
+  <si>
+    <t>Error message "You must enter all field above"</t>
+  </si>
+  <si>
+    <t>Navigate to Home Page</t>
+  </si>
+  <si>
+    <t>Verify that user can not create new account with an existing email</t>
+  </si>
+  <si>
+    <t>1. Open website.
+2. Navigate to Login page.
+3. Input Phone Number or Email and Password which already been used</t>
+  </si>
+  <si>
+    <t>Error message "This email has already been used"</t>
+  </si>
+  <si>
+    <t>Verify that the UI of Product Page is displayed as design</t>
+  </si>
+  <si>
+    <t>1. Open website.
+2. Login.
+3. Click on product.
+4. Observe the Product Page on UI.</t>
+  </si>
+  <si>
+    <t>All UI components should be matched with design:
+Product name: Title.
+Price: label.
+Size: listbox.
+Color: listbox.
+Quantity: text box.
+Add to cart: button
+Add to wishlist: button</t>
+  </si>
+  <si>
+    <t>Default value is blank, default quantity is 1.</t>
+  </si>
+  <si>
+    <t>Verify that user add product to cart successfully.</t>
+  </si>
+  <si>
+    <t>1. Open website.
+2. Login.
+3. Click on product.
+4. Observe the default value.</t>
+  </si>
+  <si>
+    <t>1. Open website.
+2. Login.
+3. Click on product.
+4. Click and enter all values.
+5. Click on button Add to Cart</t>
+  </si>
+  <si>
+    <t>Message "Add to Cart successfully" display on the top of the page.</t>
+  </si>
+  <si>
+    <t>Color: Blue
+Size: L
+Quantity: 1</t>
+  </si>
+  <si>
+    <t>Verify that error message display when user add product to cart with missing color/size</t>
+  </si>
+  <si>
+    <t>1. Open website.
+2. Login.
+3. Click on product.
+4. Click and enter all values but missing color/size.
+5. Click on button Add to Cart</t>
+  </si>
+  <si>
+    <t>Message "This is a required field" display on the bottom of the corresponding field.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Color: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Size: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Quantity: 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that error message display when user add product to cart with negative value</t>
+  </si>
+  <si>
+    <t>1. Open website.
+2. Login.
+3. Click on product.
+4. Click all values but enter negative quantity.
+5. Click on button Add to Cart</t>
+  </si>
+  <si>
+    <t>Color: Blue
+Size: L
+Quantity: -1</t>
+  </si>
+  <si>
+    <t>Message "Please enter quantity greater than 0" display on the bottom of the corresponding field.</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1058,6 +1459,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009E67A6-5D8C-46A9-9255-99A7BF5C4F56}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,13 +1807,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1424,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -1441,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>19</v>
@@ -1458,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>21</v>
@@ -1474,13 +1876,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1491,13 +1893,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1513,7 +1915,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>24</v>
@@ -1530,7 +1932,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>28</v>
@@ -1547,7 +1949,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>30</v>
@@ -1571,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>33</v>
@@ -1579,13 +1981,13 @@
     </row>
     <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C15" s="16">
         <v>7</v>
@@ -1593,7 +1995,7 @@
     </row>
     <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C16" s="16">
         <v>3</v>
@@ -1601,7 +2003,7 @@
     </row>
     <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C17" s="16">
         <v>3</v>
@@ -1617,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBF257F-0C91-4CA8-AE2A-D2D6C0B2A637}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1632,19 +2034,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>146</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1671,30 +2076,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1717,15 +2122,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -1748,17 +2153,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FACADF-9128-41F4-B561-002173A0815F}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,7 +2186,7 @@
     <col min="3" max="3" width="74.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1829,13 +2234,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1853,13 +2258,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1877,13 +2282,13 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1901,13 +2306,13 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1925,13 +2330,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1949,13 +2354,13 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1973,327 +2378,47 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2302,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D0DAE4-11A2-47A3-ABA9-6B28EA9B527C}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2314,9 +2439,9 @@
     <col min="2" max="2" width="25.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="111.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5"/>
     <col min="10" max="10" width="13.109375" style="5" bestFit="1" customWidth="1"/>
@@ -2399,7 +2524,7 @@
         <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2451,11 +2576,11 @@
         <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>51</v>
@@ -2479,11 +2604,11 @@
         <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>51</v>
@@ -2501,20 +2626,20 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
@@ -2529,20 +2654,20 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
@@ -2557,20 +2682,20 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
@@ -2585,20 +2710,20 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
@@ -2613,20 +2738,20 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
@@ -2641,20 +2766,20 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
@@ -2662,104 +2787,6 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2768,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4CF1D2-5558-412B-9231-855A7259847A}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2780,9 +2807,9 @@
     <col min="2" max="2" width="25.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="111.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5"/>
     <col min="10" max="10" width="13.109375" style="5" bestFit="1" customWidth="1"/>
@@ -2833,13 +2860,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2859,13 +2886,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2885,13 +2912,13 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2911,17 +2938,17 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>51</v>
@@ -2945,11 +2972,11 @@
         <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>51</v>
@@ -2967,20 +2994,18 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
@@ -2998,17 +3023,17 @@
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
@@ -3026,17 +3051,17 @@
         <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
@@ -3050,21 +3075,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
@@ -3079,20 +3104,20 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
@@ -3107,20 +3132,20 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
@@ -3129,103 +3154,235 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935FF31C-322E-477C-BF74-E453ABB270AF}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="86.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5"/>
+    <col min="10" max="10" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
